--- a/Word/项目开发小组成员通讯信息.xlsx
+++ b/Word/项目开发小组成员通讯信息.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiangYuan\20180517\android-voice-control\Word\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22440" windowHeight="11745"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>姓名</t>
   </si>
@@ -120,6 +115,10 @@
   </si>
   <si>
     <t>智能语音交互，家庭网关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>309158478@qq.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +494,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +617,12 @@
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="D5">
+        <v>309158478</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F5">
         <v>13824476164</v>
       </c>
@@ -642,6 +646,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
